--- a/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
+++ b/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
@@ -75,9 +75,6 @@
     <t>Schwingquarz 32.786 khz</t>
   </si>
   <si>
-    <t>FPS009-30003</t>
-  </si>
-  <si>
     <t>MOSFET N-Chanel 2N7000</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Buchsenheader x2</t>
+  </si>
+  <si>
+    <t>120pF</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -465,7 +465,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -544,15 +544,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -560,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -568,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -576,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -584,15 +587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -600,12 +603,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -613,7 +616,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -621,7 +624,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -629,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -637,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -645,7 +648,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -677,14 +680,6 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
         <v>3</v>
       </c>
     </row>

--- a/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
+++ b/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Bateilname:</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>120pF</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -508,6 +511,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -610,16 +616,22 @@
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -627,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -635,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -643,15 +655,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -659,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -667,20 +682,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
         <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
+++ b/Informationen/Fahradcomputer_mk2_Materialliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Bateilname:</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>nicht bestellt</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -480,6 +483,9 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
